--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 4/id.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 4/id.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>_id</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Lausanne</t>
+  </si>
+  <si>
+    <t>Sud-Ouest lausannois</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -652,6 +655,29 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4070000000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4070</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
